--- a/data/파도 없이 색소만.xlsx
+++ b/data/파도 없이 색소만.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goood\Documents\wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D6ED2-91CF-4F92-93A6-C1792F53BF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C89BC8-33AB-48B7-A570-253383E8AE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="파도 없이 색소만" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -173,7 +173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'파도 없이 색소만'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,10 +206,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$121</c:f>
+              <c:f>'파도 없이 색소만'!$A$2:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -569,375 +569,381 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$121</c:f>
+              <c:f>'파도 없이 색소만'!$C$2:$C$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>1.0733837330552659E-2</c:v>
+                  <c:v>4.460443899782135E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9835766423357671E-3</c:v>
+                  <c:v>4.3402777777777783E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1269551616266947E-2</c:v>
+                  <c:v>4.5772058823529409E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2716371220020857E-2</c:v>
+                  <c:v>4.6211192810457519E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6744004171011473E-2</c:v>
+                  <c:v>4.8158360566448802E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1716631908237753E-2</c:v>
+                  <c:v>4.8117510893246188E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1468978102189781E-2</c:v>
+                  <c:v>5.1862064270152497E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2720281543274237E-2</c:v>
+                  <c:v>5.6614242919389983E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5633472367049011E-2</c:v>
+                  <c:v>5.9606481481481483E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8514077163712199E-2</c:v>
+                  <c:v>6.2006399782135083E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8683524504692391E-2</c:v>
+                  <c:v>5.9701797385620918E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1700990615224193E-2</c:v>
+                  <c:v>6.2445533769063179E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2978362877997912E-2</c:v>
+                  <c:v>6.6132216775599134E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7729405630865482E-2</c:v>
+                  <c:v>6.4123774509803916E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9058915537017732E-2</c:v>
+                  <c:v>6.7367919389978215E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9365224191866531E-2</c:v>
+                  <c:v>6.7136437908496729E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8791710114702807E-2</c:v>
+                  <c:v>6.8988289760348584E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4051094890510946E-2</c:v>
+                  <c:v>7.1405228758169931E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.555005213764338E-2</c:v>
+                  <c:v>6.9543164488017423E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.6534150156412925E-2</c:v>
+                  <c:v>7.1340550108932463E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.4689781021897805E-2</c:v>
+                  <c:v>7.4424700435729851E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0672575599582899E-2</c:v>
+                  <c:v>7.2916666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4843587069864437E-2</c:v>
+                  <c:v>7.6320806100217867E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.623175182481752E-2</c:v>
+                  <c:v>7.5565087145969503E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5104275286757033E-2</c:v>
+                  <c:v>7.469362745098039E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.1680135557872791E-2</c:v>
+                  <c:v>7.6354847494553374E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2775026068821686E-2</c:v>
+                  <c:v>7.6276552287581706E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.1334723670490092E-2</c:v>
+                  <c:v>7.7287581699346408E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8278154327424396E-2</c:v>
+                  <c:v>7.9997276688453162E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.372002085505735E-2</c:v>
+                  <c:v>7.9752178649237476E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.2833680917622526E-2</c:v>
+                  <c:v>8.1552968409586063E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.6257820646506783E-2</c:v>
+                  <c:v>8.6815767973856206E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.0568300312825863E-2</c:v>
+                  <c:v>9.5309095860566448E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.0998435870698651E-2</c:v>
+                  <c:v>0.1071963507625272</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.6977320125130343E-2</c:v>
+                  <c:v>0.11733047385620909</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.3640510948905105E-2</c:v>
+                  <c:v>0.1042721949891068</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.0968456725755987E-2</c:v>
+                  <c:v>9.5523556644880173E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.712982273201251E-2</c:v>
+                  <c:v>9.6456290849673207E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.4340458811261733E-2</c:v>
+                  <c:v>9.2681100217864923E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.4927007299270067E-2</c:v>
+                  <c:v>8.8841230936819171E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.86900417101147E-2</c:v>
+                  <c:v>8.8681236383442261E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.7738529718456733E-2</c:v>
+                  <c:v>8.7411492374727673E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.0132950990615222E-2</c:v>
+                  <c:v>8.4504357298474941E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.0093847758081343E-2</c:v>
+                  <c:v>8.3816721132897606E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.5883733055265897E-2</c:v>
+                  <c:v>8.1614242919389984E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.5088633993743477E-2</c:v>
+                  <c:v>7.828499455337691E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3735662148070911E-2</c:v>
+                  <c:v>7.9027096949891074E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.550182481751825E-2</c:v>
+                  <c:v>8.0735974945533764E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.20737747653806E-2</c:v>
+                  <c:v>7.9360702614379081E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.568430656934307E-2</c:v>
+                  <c:v>8.4003948801742917E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.453336809176225E-2</c:v>
+                  <c:v>8.1069580610021785E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.379040667361835E-2</c:v>
+                  <c:v>8.3874591503267967E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2851929092805E-2</c:v>
+                  <c:v>8.3997140522875824E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.392075078206465E-2</c:v>
+                  <c:v>8.2713779956427022E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.068169968717414E-2</c:v>
+                  <c:v>8.4095860566448799E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1053180396246091E-2</c:v>
+                  <c:v>8.4480528322440088E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.109880083420229E-2</c:v>
+                  <c:v>8.2962282135076254E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.269551616266945E-2</c:v>
+                  <c:v>8.5331563180827893E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.4629822732012515E-3</c:v>
+                  <c:v>8.6652369281045749E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.0589155370177261E-3</c:v>
+                  <c:v>8.6621732026143788E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.1074035453597496E-3</c:v>
+                  <c:v>8.83510348583878E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.5831595411887378E-3</c:v>
+                  <c:v>8.7983387799564272E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.8972888425443169E-3</c:v>
+                  <c:v>8.6836192810457513E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.5099061522419189E-3</c:v>
+                  <c:v>8.7554466230936823E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.1803962460896771E-3</c:v>
+                  <c:v>8.8061683006535954E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.223149113660063E-3</c:v>
+                  <c:v>8.8010620915032686E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.8089155370177271E-3</c:v>
+                  <c:v>8.9140795206971671E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.1999478623566209E-3</c:v>
+                  <c:v>8.7268518518518523E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.3302919708029198E-3</c:v>
+                  <c:v>8.8153594771241836E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.4838373305526591E-3</c:v>
+                  <c:v>8.8126361655773422E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.935610010427529E-3</c:v>
+                  <c:v>8.7346813725490191E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.8415015641293012E-3</c:v>
+                  <c:v>8.8429330065359482E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.1021897810218982E-3</c:v>
+                  <c:v>8.8119553376906315E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.528675703858185E-3</c:v>
+                  <c:v>8.5934095860566453E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.603232533889468E-3</c:v>
+                  <c:v>8.7530637254901955E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.87043795620438E-3</c:v>
+                  <c:v>8.7704248366013066E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.1180917622523462E-3</c:v>
+                  <c:v>8.7956154684095858E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9747132429614178E-3</c:v>
+                  <c:v>8.8395288671023961E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.427267987486966E-3</c:v>
+                  <c:v>8.8735702614379089E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.026850886339937E-3</c:v>
+                  <c:v>8.6948529411764702E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.3461939520333678E-3</c:v>
+                  <c:v>8.9712690631808284E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2028154327424399E-3</c:v>
+                  <c:v>9.0322031590413937E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.6488529718456731E-3</c:v>
+                  <c:v>8.7050653594771238E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.9421272158498439E-3</c:v>
+                  <c:v>8.8357843137254907E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.3918143899895731E-3</c:v>
+                  <c:v>8.7911900871459697E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9681960375391031E-3</c:v>
+                  <c:v>8.833401416122004E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.609749739311783E-3</c:v>
+                  <c:v>8.998502178649237E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8248175182481749E-3</c:v>
+                  <c:v>9.1581563180827885E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.1637122002085511E-3</c:v>
+                  <c:v>9.1850490196078438E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.766162669447341E-3</c:v>
+                  <c:v>9.0213099128540308E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3620959332638169E-3</c:v>
+                  <c:v>9.1659858387799567E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.583680917622523E-3</c:v>
+                  <c:v>9.0509259259259262E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9942648592283629E-3</c:v>
+                  <c:v>9.0914351851851857E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.8899895724713239E-3</c:v>
+                  <c:v>8.8773148148148143E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.160062565172054E-3</c:v>
+                  <c:v>9.1424972766884535E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.5445776850886339E-3</c:v>
+                  <c:v>9.208537581699347E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.046402502606882E-3</c:v>
+                  <c:v>9.2956835511982569E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.6227841501564131E-3</c:v>
+                  <c:v>8.9722903050108938E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.329509906152242E-3</c:v>
+                  <c:v>9.0512663398692808E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.564129301355579E-3</c:v>
+                  <c:v>9.0832652505446629E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.026850886339937E-3</c:v>
+                  <c:v>9.3361928104575165E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.557612095933264E-3</c:v>
+                  <c:v>9.1254765795206971E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.2773722627737231E-3</c:v>
+                  <c:v>9.2289624183006541E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.4142335766423361E-3</c:v>
+                  <c:v>9.3252995642701522E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.0855057351407721E-3</c:v>
+                  <c:v>9.3903186274509803E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.49895724713243E-3</c:v>
+                  <c:v>9.2922794117647062E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.296923879040667E-3</c:v>
+                  <c:v>9.4553376906318085E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.6944734098018771E-3</c:v>
+                  <c:v>9.4291258169934639E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.1376433785192908E-3</c:v>
+                  <c:v>9.4774645969498916E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.6944734098018771E-3</c:v>
+                  <c:v>9.390999455337691E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.492440041710115E-3</c:v>
+                  <c:v>9.3327886710239658E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.0072992700729932E-3</c:v>
+                  <c:v>9.5264842047930287E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.5742961418143899E-3</c:v>
+                  <c:v>9.856004901960784E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.87043795620438E-3</c:v>
+                  <c:v>9.9880855119825709E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.6488529718456731E-3</c:v>
+                  <c:v>9.8267293028322433E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.733576642335767E-3</c:v>
+                  <c:v>9.5605255991285401E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.6981230448383728E-3</c:v>
+                  <c:v>9.7157543572984756E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.8052659019812301E-3</c:v>
+                  <c:v>9.5697167755991283E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.603232533889468E-3</c:v>
+                  <c:v>9.4890386710239652E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.6618873826903021E-3</c:v>
+                  <c:v>9.6238425925925922E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.8842592592592593E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,7 +951,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F740-41D7-B822-4F6E7C33E860}"/>
+              <c16:uniqueId val="{00000000-81FC-4EDE-A9BD-446A520A6277}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -957,11 +963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58176127"/>
-        <c:axId val="58179487"/>
+        <c:axId val="801561056"/>
+        <c:axId val="801560576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58176127"/>
+        <c:axId val="801561056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,12 +1024,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58179487"/>
+        <c:crossAx val="801560576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58179487"/>
+        <c:axId val="801560576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1086,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58176127"/>
+        <c:crossAx val="801561056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1728,26 +1734,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>659130</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABE1B25-47EC-7724-35A4-79B7BB637C69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1470A430-CDC4-4DFE-90C8-A455E94E6D70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2049,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2076,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1647</v>
+        <v>13103</v>
       </c>
       <c r="C2">
-        <v>1.0733837330552659E-2</v>
+        <v>4.460443899782135E-2</v>
       </c>
       <c r="D2">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2090,13 +2098,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1225</v>
+        <v>12750</v>
       </c>
       <c r="C3">
-        <v>7.9835766423357671E-3</v>
+        <v>4.3402777777777783E-2</v>
       </c>
       <c r="D3">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -2104,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4798</v>
+        <v>13446</v>
       </c>
       <c r="C4">
-        <v>3.1269551616266947E-2</v>
+        <v>4.5772058823529409E-2</v>
       </c>
       <c r="D4">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2118,13 +2126,13 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>5020</v>
+        <v>13575</v>
       </c>
       <c r="C5">
-        <v>3.2716371220020857E-2</v>
+        <v>4.6211192810457519E-2</v>
       </c>
       <c r="D5">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -2132,13 +2140,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>5638</v>
+        <v>14147</v>
       </c>
       <c r="C6">
-        <v>3.6744004171011473E-2</v>
+        <v>4.8158360566448802E-2</v>
       </c>
       <c r="D6">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -2146,13 +2154,13 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>6401</v>
+        <v>14135</v>
       </c>
       <c r="C7">
-        <v>4.1716631908237753E-2</v>
+        <v>4.8117510893246188E-2</v>
       </c>
       <c r="D7">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -2160,13 +2168,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>6363</v>
+        <v>15235</v>
       </c>
       <c r="C8">
-        <v>4.1468978102189781E-2</v>
+        <v>5.1862064270152497E-2</v>
       </c>
       <c r="D8">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -2174,13 +2182,13 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>6555</v>
+        <v>16631</v>
       </c>
       <c r="C9">
-        <v>4.2720281543274237E-2</v>
+        <v>5.6614242919389983E-2</v>
       </c>
       <c r="D9">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -2188,13 +2196,13 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>7002</v>
+        <v>17510</v>
       </c>
       <c r="C10">
-        <v>4.5633472367049011E-2</v>
+        <v>5.9606481481481483E-2</v>
       </c>
       <c r="D10">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2202,13 +2210,13 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>7444</v>
+        <v>18215</v>
       </c>
       <c r="C11">
-        <v>4.8514077163712199E-2</v>
+        <v>6.2006399782135083E-2</v>
       </c>
       <c r="D11">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -2216,13 +2224,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>7470</v>
+        <v>17538</v>
       </c>
       <c r="C12">
-        <v>4.8683524504692391E-2</v>
+        <v>5.9701797385620918E-2</v>
       </c>
       <c r="D12">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -2230,13 +2238,13 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>7933</v>
+        <v>18344</v>
       </c>
       <c r="C13">
-        <v>5.1700990615224193E-2</v>
+        <v>6.2445533769063179E-2</v>
       </c>
       <c r="D13">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -2244,13 +2252,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>8129</v>
+        <v>19427</v>
       </c>
       <c r="C14">
-        <v>5.2978362877997912E-2</v>
+        <v>6.6132216775599134E-2</v>
       </c>
       <c r="D14">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -2258,13 +2266,13 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>8858</v>
+        <v>18837</v>
       </c>
       <c r="C15">
-        <v>5.7729405630865482E-2</v>
+        <v>6.4123774509803916E-2</v>
       </c>
       <c r="D15">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -2272,13 +2280,13 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>9062</v>
+        <v>19790</v>
       </c>
       <c r="C16">
-        <v>5.9058915537017732E-2</v>
+        <v>6.7367919389978215E-2</v>
       </c>
       <c r="D16">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -2286,13 +2294,13 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>9109</v>
+        <v>19722</v>
       </c>
       <c r="C17">
-        <v>5.9365224191866531E-2</v>
+        <v>6.7136437908496729E-2</v>
       </c>
       <c r="D17">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2300,13 +2308,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>9021</v>
+        <v>20266</v>
       </c>
       <c r="C18">
-        <v>5.8791710114702807E-2</v>
+        <v>6.8988289760348584E-2</v>
       </c>
       <c r="D18">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2314,13 +2322,13 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>9828</v>
+        <v>20976</v>
       </c>
       <c r="C19">
-        <v>6.4051094890510946E-2</v>
+        <v>7.1405228758169931E-2</v>
       </c>
       <c r="D19">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2328,13 +2336,13 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>10058</v>
+        <v>20429</v>
       </c>
       <c r="C20">
-        <v>6.555005213764338E-2</v>
+        <v>6.9543164488017423E-2</v>
       </c>
       <c r="D20">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2342,13 +2350,13 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>10209</v>
+        <v>20957</v>
       </c>
       <c r="C21">
-        <v>6.6534150156412925E-2</v>
+        <v>7.1340550108932463E-2</v>
       </c>
       <c r="D21">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2356,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>9926</v>
+        <v>21863</v>
       </c>
       <c r="C22">
-        <v>6.4689781021897805E-2</v>
+        <v>7.4424700435729851E-2</v>
       </c>
       <c r="D22">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2370,13 +2378,13 @@
         <v>10.5</v>
       </c>
       <c r="B23">
-        <v>10844</v>
+        <v>21420</v>
       </c>
       <c r="C23">
-        <v>7.0672575599582899E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="D23">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -2384,13 +2392,13 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>11484</v>
+        <v>22420</v>
       </c>
       <c r="C24">
-        <v>7.4843587069864437E-2</v>
+        <v>7.6320806100217867E-2</v>
       </c>
       <c r="D24">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -2398,13 +2406,13 @@
         <v>11.5</v>
       </c>
       <c r="B25">
-        <v>11697</v>
+        <v>22198</v>
       </c>
       <c r="C25">
-        <v>7.623175182481752E-2</v>
+        <v>7.5565087145969503E-2</v>
       </c>
       <c r="D25">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -2412,13 +2420,13 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>11524</v>
+        <v>21942</v>
       </c>
       <c r="C26">
-        <v>7.5104275286757033E-2</v>
+        <v>7.469362745098039E-2</v>
       </c>
       <c r="D26">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2426,13 +2434,13 @@
         <v>12.5</v>
       </c>
       <c r="B27">
-        <v>12533</v>
+        <v>22430</v>
       </c>
       <c r="C27">
-        <v>8.1680135557872791E-2</v>
+        <v>7.6354847494553374E-2</v>
       </c>
       <c r="D27">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2440,13 +2448,13 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>12701</v>
+        <v>22407</v>
       </c>
       <c r="C28">
-        <v>8.2775026068821686E-2</v>
+        <v>7.6276552287581706E-2</v>
       </c>
       <c r="D28">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2454,13 +2462,13 @@
         <v>13.5</v>
       </c>
       <c r="B29">
-        <v>12480</v>
+        <v>22704</v>
       </c>
       <c r="C29">
-        <v>8.1334723670490092E-2</v>
+        <v>7.7287581699346408E-2</v>
       </c>
       <c r="D29">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2468,13 +2476,13 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>12011</v>
+        <v>23500</v>
       </c>
       <c r="C30">
-        <v>7.8278154327424396E-2</v>
+        <v>7.9997276688453162E-2</v>
       </c>
       <c r="D30">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,13 +2490,13 @@
         <v>14.5</v>
       </c>
       <c r="B31">
-        <v>12846</v>
+        <v>23428</v>
       </c>
       <c r="C31">
-        <v>8.372002085505735E-2</v>
+        <v>7.9752178649237476E-2</v>
       </c>
       <c r="D31">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2496,13 +2504,13 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>12710</v>
+        <v>23957</v>
       </c>
       <c r="C32">
-        <v>8.2833680917622526E-2</v>
+        <v>8.1552968409586063E-2</v>
       </c>
       <c r="D32">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2510,13 +2518,13 @@
         <v>15.5</v>
       </c>
       <c r="B33">
-        <v>11701</v>
+        <v>25503</v>
       </c>
       <c r="C33">
-        <v>7.6257820646506783E-2</v>
+        <v>8.6815767973856206E-2</v>
       </c>
       <c r="D33">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2524,13 +2532,13 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>10828</v>
+        <v>27998</v>
       </c>
       <c r="C34">
-        <v>7.0568300312825863E-2</v>
+        <v>9.5309095860566448E-2</v>
       </c>
       <c r="D34">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2538,13 +2546,13 @@
         <v>16.5</v>
       </c>
       <c r="B35">
-        <v>10894</v>
+        <v>31490</v>
       </c>
       <c r="C35">
-        <v>7.0998435870698651E-2</v>
+        <v>0.1071963507625272</v>
       </c>
       <c r="D35">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -2552,13 +2560,13 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>10277</v>
+        <v>34467</v>
       </c>
       <c r="C36">
-        <v>6.6977320125130343E-2</v>
+        <v>0.11733047385620909</v>
       </c>
       <c r="D36">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -2566,13 +2574,13 @@
         <v>17.5</v>
       </c>
       <c r="B37">
-        <v>9765</v>
+        <v>30631</v>
       </c>
       <c r="C37">
-        <v>6.3640510948905105E-2</v>
+        <v>0.1042721949891068</v>
       </c>
       <c r="D37">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -2580,13 +2588,13 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>9355</v>
+        <v>28061</v>
       </c>
       <c r="C38">
-        <v>6.0968456725755987E-2</v>
+        <v>9.5523556644880173E-2</v>
       </c>
       <c r="D38">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2594,13 +2602,13 @@
         <v>18.5</v>
       </c>
       <c r="B39">
-        <v>8766</v>
+        <v>28335</v>
       </c>
       <c r="C39">
-        <v>5.712982273201251E-2</v>
+        <v>9.6456290849673207E-2</v>
       </c>
       <c r="D39">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2608,13 +2616,13 @@
         <v>19</v>
       </c>
       <c r="B40">
-        <v>8338</v>
+        <v>27226</v>
       </c>
       <c r="C40">
-        <v>5.4340458811261733E-2</v>
+        <v>9.2681100217864923E-2</v>
       </c>
       <c r="D40">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2622,13 +2630,13 @@
         <v>19.5</v>
       </c>
       <c r="B41">
-        <v>8428</v>
+        <v>26098</v>
       </c>
       <c r="C41">
-        <v>5.4927007299270067E-2</v>
+        <v>8.8841230936819171E-2</v>
       </c>
       <c r="D41">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2636,13 +2644,13 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>7471</v>
+        <v>26051</v>
       </c>
       <c r="C42">
-        <v>4.86900417101147E-2</v>
+        <v>8.8681236383442261E-2</v>
       </c>
       <c r="D42">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -2650,13 +2658,13 @@
         <v>20.5</v>
       </c>
       <c r="B43">
-        <v>7325</v>
+        <v>25678</v>
       </c>
       <c r="C43">
-        <v>4.7738529718456733E-2</v>
+        <v>8.7411492374727673E-2</v>
       </c>
       <c r="D43">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2664,13 +2672,13 @@
         <v>21</v>
       </c>
       <c r="B44">
-        <v>6158</v>
+        <v>24824</v>
       </c>
       <c r="C44">
-        <v>4.0132950990615222E-2</v>
+        <v>8.4504357298474941E-2</v>
       </c>
       <c r="D44">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2678,13 +2686,13 @@
         <v>21.5</v>
       </c>
       <c r="B45">
-        <v>6152</v>
+        <v>24622</v>
       </c>
       <c r="C45">
-        <v>4.0093847758081343E-2</v>
+        <v>8.3816721132897606E-2</v>
       </c>
       <c r="D45">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2692,13 +2700,13 @@
         <v>22</v>
       </c>
       <c r="B46">
-        <v>5506</v>
+        <v>23975</v>
       </c>
       <c r="C46">
-        <v>3.5883733055265897E-2</v>
+        <v>8.1614242919389984E-2</v>
       </c>
       <c r="D46">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2706,13 +2714,13 @@
         <v>22.5</v>
       </c>
       <c r="B47">
-        <v>5384</v>
+        <v>22997</v>
       </c>
       <c r="C47">
-        <v>3.5088633993743477E-2</v>
+        <v>7.828499455337691E-2</v>
       </c>
       <c r="D47">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2720,13 +2728,13 @@
         <v>23</v>
       </c>
       <c r="B48">
-        <v>3642</v>
+        <v>23215</v>
       </c>
       <c r="C48">
-        <v>2.3735662148070911E-2</v>
+        <v>7.9027096949891074E-2</v>
       </c>
       <c r="D48">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2734,13 +2742,13 @@
         <v>23.5</v>
       </c>
       <c r="B49">
-        <v>3913</v>
+        <v>23717</v>
       </c>
       <c r="C49">
-        <v>2.550182481751825E-2</v>
+        <v>8.0735974945533764E-2</v>
       </c>
       <c r="D49">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2748,13 +2756,13 @@
         <v>24</v>
       </c>
       <c r="B50">
-        <v>3387</v>
+        <v>23313</v>
       </c>
       <c r="C50">
-        <v>2.20737747653806E-2</v>
+        <v>7.9360702614379081E-2</v>
       </c>
       <c r="D50">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2762,13 +2770,13 @@
         <v>24.5</v>
       </c>
       <c r="B51">
-        <v>3941</v>
+        <v>24677</v>
       </c>
       <c r="C51">
-        <v>2.568430656934307E-2</v>
+        <v>8.4003948801742917E-2</v>
       </c>
       <c r="D51">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2776,13 +2784,13 @@
         <v>25</v>
       </c>
       <c r="B52">
-        <v>2230</v>
+        <v>23815</v>
       </c>
       <c r="C52">
-        <v>1.453336809176225E-2</v>
+        <v>8.1069580610021785E-2</v>
       </c>
       <c r="D52">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2790,13 +2798,13 @@
         <v>25.5</v>
       </c>
       <c r="B53">
-        <v>2116</v>
+        <v>24639</v>
       </c>
       <c r="C53">
-        <v>1.379040667361835E-2</v>
+        <v>8.3874591503267967E-2</v>
       </c>
       <c r="D53">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2804,13 +2812,13 @@
         <v>26</v>
       </c>
       <c r="B54">
-        <v>1972</v>
+        <v>24675</v>
       </c>
       <c r="C54">
-        <v>1.2851929092805E-2</v>
+        <v>8.3997140522875824E-2</v>
       </c>
       <c r="D54">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2818,13 +2826,13 @@
         <v>26.5</v>
       </c>
       <c r="B55">
-        <v>2136</v>
+        <v>24298</v>
       </c>
       <c r="C55">
-        <v>1.392075078206465E-2</v>
+        <v>8.2713779956427022E-2</v>
       </c>
       <c r="D55">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -2832,13 +2840,13 @@
         <v>27</v>
       </c>
       <c r="B56">
-        <v>1639</v>
+        <v>24704</v>
       </c>
       <c r="C56">
-        <v>1.068169968717414E-2</v>
+        <v>8.4095860566448799E-2</v>
       </c>
       <c r="D56">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -2846,13 +2854,13 @@
         <v>27.5</v>
       </c>
       <c r="B57">
-        <v>1696</v>
+        <v>24817</v>
       </c>
       <c r="C57">
-        <v>1.1053180396246091E-2</v>
+        <v>8.4480528322440088E-2</v>
       </c>
       <c r="D57">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2860,13 +2868,13 @@
         <v>28</v>
       </c>
       <c r="B58">
-        <v>1703</v>
+        <v>24371</v>
       </c>
       <c r="C58">
-        <v>1.109880083420229E-2</v>
+        <v>8.2962282135076254E-2</v>
       </c>
       <c r="D58">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2874,13 +2882,13 @@
         <v>28.5</v>
       </c>
       <c r="B59">
-        <v>1948</v>
+        <v>25067</v>
       </c>
       <c r="C59">
-        <v>1.269551616266945E-2</v>
+        <v>8.5331563180827893E-2</v>
       </c>
       <c r="D59">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2888,13 +2896,13 @@
         <v>29</v>
       </c>
       <c r="B60">
-        <v>1452</v>
+        <v>25455</v>
       </c>
       <c r="C60">
-        <v>9.4629822732012515E-3</v>
+        <v>8.6652369281045749E-2</v>
       </c>
       <c r="D60">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2902,13 +2910,13 @@
         <v>29.5</v>
       </c>
       <c r="B61">
-        <v>1390</v>
+        <v>25446</v>
       </c>
       <c r="C61">
-        <v>9.0589155370177261E-3</v>
+        <v>8.6621732026143788E-2</v>
       </c>
       <c r="D61">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2916,13 +2924,13 @@
         <v>30</v>
       </c>
       <c r="B62">
-        <v>1244</v>
+        <v>25954</v>
       </c>
       <c r="C62">
-        <v>8.1074035453597496E-3</v>
+        <v>8.83510348583878E-2</v>
       </c>
       <c r="D62">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2930,13 +2938,13 @@
         <v>30.5</v>
       </c>
       <c r="B63">
-        <v>1317</v>
+        <v>25846</v>
       </c>
       <c r="C63">
-        <v>8.5831595411887378E-3</v>
+        <v>8.7983387799564272E-2</v>
       </c>
       <c r="D63">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2944,13 +2952,13 @@
         <v>31</v>
       </c>
       <c r="B64">
-        <v>598</v>
+        <v>25509</v>
       </c>
       <c r="C64">
-        <v>3.8972888425443169E-3</v>
+        <v>8.6836192810457513E-2</v>
       </c>
       <c r="D64">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2958,13 +2966,13 @@
         <v>31.5</v>
       </c>
       <c r="B65">
-        <v>692</v>
+        <v>25720</v>
       </c>
       <c r="C65">
-        <v>4.5099061522419189E-3</v>
+        <v>8.7554466230936823E-2</v>
       </c>
       <c r="D65">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2972,13 +2980,13 @@
         <v>32</v>
       </c>
       <c r="B66">
-        <v>488</v>
+        <v>25869</v>
       </c>
       <c r="C66">
-        <v>3.1803962460896771E-3</v>
+        <v>8.8061683006535954E-2</v>
       </c>
       <c r="D66">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2986,13 +2994,13 @@
         <v>32.5</v>
       </c>
       <c r="B67">
-        <v>648</v>
+        <v>25854</v>
       </c>
       <c r="C67">
-        <v>4.223149113660063E-3</v>
+        <v>8.8010620915032686E-2</v>
       </c>
       <c r="D67">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -3000,13 +3008,13 @@
         <v>33</v>
       </c>
       <c r="B68">
-        <v>431</v>
+        <v>26186</v>
       </c>
       <c r="C68">
-        <v>2.8089155370177271E-3</v>
+        <v>8.9140795206971671E-2</v>
       </c>
       <c r="D68">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -3014,13 +3022,13 @@
         <v>33.5</v>
       </c>
       <c r="B69">
-        <v>491</v>
+        <v>25636</v>
       </c>
       <c r="C69">
-        <v>3.1999478623566209E-3</v>
+        <v>8.7268518518518523E-2</v>
       </c>
       <c r="D69">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -3028,13 +3036,13 @@
         <v>34</v>
       </c>
       <c r="B70">
-        <v>511</v>
+        <v>25896</v>
       </c>
       <c r="C70">
-        <v>3.3302919708029198E-3</v>
+        <v>8.8153594771241836E-2</v>
       </c>
       <c r="D70">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -3042,13 +3050,13 @@
         <v>34.5</v>
       </c>
       <c r="B71">
-        <v>688</v>
+        <v>25888</v>
       </c>
       <c r="C71">
-        <v>4.4838373305526591E-3</v>
+        <v>8.8126361655773422E-2</v>
       </c>
       <c r="D71">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -3056,13 +3064,13 @@
         <v>35</v>
       </c>
       <c r="B72">
-        <v>297</v>
+        <v>25659</v>
       </c>
       <c r="C72">
-        <v>1.935610010427529E-3</v>
+        <v>8.7346813725490191E-2</v>
       </c>
       <c r="D72">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -3070,13 +3078,13 @@
         <v>35.5</v>
       </c>
       <c r="B73">
-        <v>436</v>
+        <v>25977</v>
       </c>
       <c r="C73">
-        <v>2.8415015641293012E-3</v>
+        <v>8.8429330065359482E-2</v>
       </c>
       <c r="D73">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -3084,13 +3092,13 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>476</v>
+        <v>25886</v>
       </c>
       <c r="C74">
-        <v>3.1021897810218982E-3</v>
+        <v>8.8119553376906315E-2</v>
       </c>
       <c r="D74">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -3098,13 +3106,13 @@
         <v>36.5</v>
       </c>
       <c r="B75">
-        <v>388</v>
+        <v>25244</v>
       </c>
       <c r="C75">
-        <v>2.528675703858185E-3</v>
+        <v>8.5934095860566453E-2</v>
       </c>
       <c r="D75">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -3112,13 +3120,13 @@
         <v>37</v>
       </c>
       <c r="B76">
-        <v>246</v>
+        <v>25713</v>
       </c>
       <c r="C76">
-        <v>1.603232533889468E-3</v>
+        <v>8.7530637254901955E-2</v>
       </c>
       <c r="D76">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -3126,13 +3134,13 @@
         <v>37.5</v>
       </c>
       <c r="B77">
-        <v>287</v>
+        <v>25764</v>
       </c>
       <c r="C77">
-        <v>1.87043795620438E-3</v>
+        <v>8.7704248366013066E-2</v>
       </c>
       <c r="D77">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -3140,13 +3148,13 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>325</v>
+        <v>25838</v>
       </c>
       <c r="C78">
-        <v>2.1180917622523462E-3</v>
+        <v>8.7956154684095858E-2</v>
       </c>
       <c r="D78">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -3154,13 +3162,13 @@
         <v>38.5</v>
       </c>
       <c r="B79">
-        <v>303</v>
+        <v>25967</v>
       </c>
       <c r="C79">
-        <v>1.9747132429614178E-3</v>
+        <v>8.8395288671023961E-2</v>
       </c>
       <c r="D79">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -3168,13 +3176,13 @@
         <v>39</v>
       </c>
       <c r="B80">
-        <v>219</v>
+        <v>26067</v>
       </c>
       <c r="C80">
-        <v>1.427267987486966E-3</v>
+        <v>8.8735702614379089E-2</v>
       </c>
       <c r="D80">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -3182,13 +3190,13 @@
         <v>39.5</v>
       </c>
       <c r="B81">
-        <v>311</v>
+        <v>25542</v>
       </c>
       <c r="C81">
-        <v>2.026850886339937E-3</v>
+        <v>8.6948529411764702E-2</v>
       </c>
       <c r="D81">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -3196,13 +3204,13 @@
         <v>40</v>
       </c>
       <c r="B82">
-        <v>360</v>
+        <v>26354</v>
       </c>
       <c r="C82">
-        <v>2.3461939520333678E-3</v>
+        <v>8.9712690631808284E-2</v>
       </c>
       <c r="D82">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -3210,13 +3218,13 @@
         <v>40.5</v>
       </c>
       <c r="B83">
-        <v>338</v>
+        <v>26533</v>
       </c>
       <c r="C83">
-        <v>2.2028154327424399E-3</v>
+        <v>9.0322031590413937E-2</v>
       </c>
       <c r="D83">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -3224,13 +3232,13 @@
         <v>41</v>
       </c>
       <c r="B84">
-        <v>253</v>
+        <v>25572</v>
       </c>
       <c r="C84">
-        <v>1.6488529718456731E-3</v>
+        <v>8.7050653594771238E-2</v>
       </c>
       <c r="D84">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -3238,13 +3246,13 @@
         <v>41.5</v>
       </c>
       <c r="B85">
-        <v>298</v>
+        <v>25956</v>
       </c>
       <c r="C85">
-        <v>1.9421272158498439E-3</v>
+        <v>8.8357843137254907E-2</v>
       </c>
       <c r="D85">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -3252,13 +3260,13 @@
         <v>42</v>
       </c>
       <c r="B86">
-        <v>367</v>
+        <v>25825</v>
       </c>
       <c r="C86">
-        <v>2.3918143899895731E-3</v>
+        <v>8.7911900871459697E-2</v>
       </c>
       <c r="D86">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -3266,13 +3274,13 @@
         <v>42.5</v>
       </c>
       <c r="B87">
-        <v>302</v>
+        <v>25949</v>
       </c>
       <c r="C87">
-        <v>1.9681960375391031E-3</v>
+        <v>8.833401416122004E-2</v>
       </c>
       <c r="D87">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -3280,13 +3288,13 @@
         <v>43</v>
       </c>
       <c r="B88">
-        <v>247</v>
+        <v>26434</v>
       </c>
       <c r="C88">
-        <v>1.609749739311783E-3</v>
+        <v>8.998502178649237E-2</v>
       </c>
       <c r="D88">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -3294,13 +3302,13 @@
         <v>43.5</v>
       </c>
       <c r="B89">
-        <v>280</v>
+        <v>26903</v>
       </c>
       <c r="C89">
-        <v>1.8248175182481749E-3</v>
+        <v>9.1581563180827885E-2</v>
       </c>
       <c r="D89">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -3308,13 +3316,13 @@
         <v>44</v>
       </c>
       <c r="B90">
-        <v>332</v>
+        <v>26982</v>
       </c>
       <c r="C90">
-        <v>2.1637122002085511E-3</v>
+        <v>9.1850490196078438E-2</v>
       </c>
       <c r="D90">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -3322,13 +3330,13 @@
         <v>44.5</v>
       </c>
       <c r="B91">
-        <v>271</v>
+        <v>26501</v>
       </c>
       <c r="C91">
-        <v>1.766162669447341E-3</v>
+        <v>9.0213099128540308E-2</v>
       </c>
       <c r="D91">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -3336,13 +3344,13 @@
         <v>45</v>
       </c>
       <c r="B92">
-        <v>209</v>
+        <v>26926</v>
       </c>
       <c r="C92">
-        <v>1.3620959332638169E-3</v>
+        <v>9.1659858387799567E-2</v>
       </c>
       <c r="D92">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -3350,13 +3358,13 @@
         <v>45.5</v>
       </c>
       <c r="B93">
-        <v>243</v>
+        <v>26588</v>
       </c>
       <c r="C93">
-        <v>1.583680917622523E-3</v>
+        <v>9.0509259259259262E-2</v>
       </c>
       <c r="D93">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -3364,13 +3372,13 @@
         <v>46</v>
       </c>
       <c r="B94">
-        <v>306</v>
+        <v>26707</v>
       </c>
       <c r="C94">
-        <v>1.9942648592283629E-3</v>
+        <v>9.0914351851851857E-2</v>
       </c>
       <c r="D94">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -3378,13 +3386,13 @@
         <v>46.5</v>
       </c>
       <c r="B95">
-        <v>290</v>
+        <v>26078</v>
       </c>
       <c r="C95">
-        <v>1.8899895724713239E-3</v>
+        <v>8.8773148148148143E-2</v>
       </c>
       <c r="D95">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -3392,13 +3400,13 @@
         <v>47</v>
       </c>
       <c r="B96">
-        <v>178</v>
+        <v>26857</v>
       </c>
       <c r="C96">
-        <v>1.160062565172054E-3</v>
+        <v>9.1424972766884535E-2</v>
       </c>
       <c r="D96">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
@@ -3406,13 +3414,13 @@
         <v>47.5</v>
       </c>
       <c r="B97">
-        <v>237</v>
+        <v>27051</v>
       </c>
       <c r="C97">
-        <v>1.5445776850886339E-3</v>
+        <v>9.208537581699347E-2</v>
       </c>
       <c r="D97">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
@@ -3420,13 +3428,13 @@
         <v>48</v>
       </c>
       <c r="B98">
-        <v>314</v>
+        <v>27307</v>
       </c>
       <c r="C98">
-        <v>2.046402502606882E-3</v>
+        <v>9.2956835511982569E-2</v>
       </c>
       <c r="D98">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
@@ -3434,13 +3442,13 @@
         <v>48.5</v>
       </c>
       <c r="B99">
-        <v>249</v>
+        <v>26357</v>
       </c>
       <c r="C99">
-        <v>1.6227841501564131E-3</v>
+        <v>8.9722903050108938E-2</v>
       </c>
       <c r="D99">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
@@ -3448,13 +3456,13 @@
         <v>49</v>
       </c>
       <c r="B100">
-        <v>204</v>
+        <v>26589</v>
       </c>
       <c r="C100">
-        <v>1.329509906152242E-3</v>
+        <v>9.0512663398692808E-2</v>
       </c>
       <c r="D100">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
@@ -3462,13 +3470,13 @@
         <v>49.5</v>
       </c>
       <c r="B101">
-        <v>240</v>
+        <v>26683</v>
       </c>
       <c r="C101">
-        <v>1.564129301355579E-3</v>
+        <v>9.0832652505446629E-2</v>
       </c>
       <c r="D101">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
@@ -3476,13 +3484,13 @@
         <v>50</v>
       </c>
       <c r="B102">
-        <v>311</v>
+        <v>27426</v>
       </c>
       <c r="C102">
-        <v>2.026850886339937E-3</v>
+        <v>9.3361928104575165E-2</v>
       </c>
       <c r="D102">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
@@ -3490,13 +3498,13 @@
         <v>50.5</v>
       </c>
       <c r="B103">
-        <v>239</v>
+        <v>26807</v>
       </c>
       <c r="C103">
-        <v>1.557612095933264E-3</v>
+        <v>9.1254765795206971E-2</v>
       </c>
       <c r="D103">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
@@ -3504,13 +3512,13 @@
         <v>51</v>
       </c>
       <c r="B104">
-        <v>196</v>
+        <v>27111</v>
       </c>
       <c r="C104">
-        <v>1.2773722627737231E-3</v>
+        <v>9.2289624183006541E-2</v>
       </c>
       <c r="D104">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
@@ -3518,13 +3526,13 @@
         <v>51.5</v>
       </c>
       <c r="B105">
-        <v>217</v>
+        <v>27394</v>
       </c>
       <c r="C105">
-        <v>1.4142335766423361E-3</v>
+        <v>9.3252995642701522E-2</v>
       </c>
       <c r="D105">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
@@ -3532,13 +3540,13 @@
         <v>52</v>
       </c>
       <c r="B106">
-        <v>320</v>
+        <v>27585</v>
       </c>
       <c r="C106">
-        <v>2.0855057351407721E-3</v>
+        <v>9.3903186274509803E-2</v>
       </c>
       <c r="D106">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
@@ -3546,13 +3554,13 @@
         <v>52.5</v>
       </c>
       <c r="B107">
-        <v>230</v>
+        <v>27297</v>
       </c>
       <c r="C107">
-        <v>1.49895724713243E-3</v>
+        <v>9.2922794117647062E-2</v>
       </c>
       <c r="D107">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -3560,13 +3568,13 @@
         <v>53</v>
       </c>
       <c r="B108">
-        <v>199</v>
+        <v>27776</v>
       </c>
       <c r="C108">
-        <v>1.296923879040667E-3</v>
+        <v>9.4553376906318085E-2</v>
       </c>
       <c r="D108">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
@@ -3574,13 +3582,13 @@
         <v>53.5</v>
       </c>
       <c r="B109">
-        <v>260</v>
+        <v>27699</v>
       </c>
       <c r="C109">
-        <v>1.6944734098018771E-3</v>
+        <v>9.4291258169934639E-2</v>
       </c>
       <c r="D109">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
@@ -3588,13 +3596,13 @@
         <v>54</v>
       </c>
       <c r="B110">
-        <v>328</v>
+        <v>27841</v>
       </c>
       <c r="C110">
-        <v>2.1376433785192908E-3</v>
+        <v>9.4774645969498916E-2</v>
       </c>
       <c r="D110">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
@@ -3602,13 +3610,13 @@
         <v>54.5</v>
       </c>
       <c r="B111">
-        <v>260</v>
+        <v>27587</v>
       </c>
       <c r="C111">
-        <v>1.6944734098018771E-3</v>
+        <v>9.390999455337691E-2</v>
       </c>
       <c r="D111">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
@@ -3616,13 +3624,13 @@
         <v>55</v>
       </c>
       <c r="B112">
-        <v>229</v>
+        <v>27416</v>
       </c>
       <c r="C112">
-        <v>1.492440041710115E-3</v>
+        <v>9.3327886710239658E-2</v>
       </c>
       <c r="D112">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -3630,13 +3638,13 @@
         <v>55.5</v>
       </c>
       <c r="B113">
-        <v>308</v>
+        <v>27985</v>
       </c>
       <c r="C113">
-        <v>2.0072992700729932E-3</v>
+        <v>9.5264842047930287E-2</v>
       </c>
       <c r="D113">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -3644,13 +3652,13 @@
         <v>56</v>
       </c>
       <c r="B114">
-        <v>395</v>
+        <v>28953</v>
       </c>
       <c r="C114">
-        <v>2.5742961418143899E-3</v>
+        <v>9.856004901960784E-2</v>
       </c>
       <c r="D114">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -3658,13 +3666,13 @@
         <v>56.5</v>
       </c>
       <c r="B115">
-        <v>287</v>
+        <v>29341</v>
       </c>
       <c r="C115">
-        <v>1.87043795620438E-3</v>
+        <v>9.9880855119825709E-2</v>
       </c>
       <c r="D115">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
@@ -3672,13 +3680,13 @@
         <v>57</v>
       </c>
       <c r="B116">
-        <v>253</v>
+        <v>28867</v>
       </c>
       <c r="C116">
-        <v>1.6488529718456731E-3</v>
+        <v>9.8267293028322433E-2</v>
       </c>
       <c r="D116">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
@@ -3686,13 +3694,13 @@
         <v>57.5</v>
       </c>
       <c r="B117">
-        <v>266</v>
+        <v>28085</v>
       </c>
       <c r="C117">
-        <v>1.733576642335767E-3</v>
+        <v>9.5605255991285401E-2</v>
       </c>
       <c r="D117">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -3700,13 +3708,13 @@
         <v>58</v>
       </c>
       <c r="B118">
-        <v>414</v>
+        <v>28541</v>
       </c>
       <c r="C118">
-        <v>2.6981230448383728E-3</v>
+        <v>9.7157543572984756E-2</v>
       </c>
       <c r="D118">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -3714,13 +3722,13 @@
         <v>58.5</v>
       </c>
       <c r="B119">
-        <v>277</v>
+        <v>28112</v>
       </c>
       <c r="C119">
-        <v>1.8052659019812301E-3</v>
+        <v>9.5697167755991283E-2</v>
       </c>
       <c r="D119">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
@@ -3728,13 +3736,13 @@
         <v>59</v>
       </c>
       <c r="B120">
-        <v>246</v>
+        <v>27875</v>
       </c>
       <c r="C120">
-        <v>1.603232533889468E-3</v>
+        <v>9.4890386710239652E-2</v>
       </c>
       <c r="D120">
-        <v>153440</v>
+        <v>293760</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
@@ -3742,13 +3750,27 @@
         <v>59.5</v>
       </c>
       <c r="B121">
-        <v>255</v>
+        <v>28271</v>
       </c>
       <c r="C121">
-        <v>1.6618873826903021E-3</v>
+        <v>9.6238425925925922E-2</v>
       </c>
       <c r="D121">
-        <v>153440</v>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>60</v>
+      </c>
+      <c r="B122">
+        <v>29036</v>
+      </c>
+      <c r="C122">
+        <v>9.8842592592592593E-2</v>
+      </c>
+      <c r="D122">
+        <v>293760</v>
       </c>
     </row>
   </sheetData>
